--- a/IBK/excel/BL_ret_BL_result_0710_01.xlsx
+++ b/IBK/excel/BL_ret_BL_result_0710_01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="431">
   <si>
     <t>file name</t>
   </si>
@@ -1298,6 +1298,18 @@
   </si>
   <si>
     <t>MSC DANIELA</t>
+  </si>
+  <si>
+    <t>FEB 16 2019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDFC BANK LTD  IV FLOOR  NO 115  RADHAKRISHNAN SALAI  MYLAPORE  CHENNAI 600004  INDIA AND RANE TRW STEERING SYSTEMS PVT LTD OCCUPANT SAFETY DIVISION 48TH KM  GST ROAD (NH45) SINGAPERUMAL KDIL-603204  INDIA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDFC BANK LTD  IV FLOOR  NO 115  RADHAKRISHNAN SALAI  MYLAPORE  CHENNAIL 600004  INDIA AND RANE TRW STEERING SYSTEMS PVT LTD OCCUPANT SAFETY DIVISION 48TH KM  GST ROAD(NH45) SINGAPERUMAL K0IL-603204  INDIA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1680,8 +1692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1689,11 +1701,12 @@
     <col min="1" max="1" width="49.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="78.75" style="2" customWidth="1"/>
     <col min="3" max="3" width="43.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="61" style="2" customWidth="1"/>
     <col min="5" max="5" width="20" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9" style="2"/>
+    <col min="6" max="6" width="21.125" style="2" customWidth="1"/>
     <col min="7" max="7" width="22.25" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="8" max="8" width="27" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -2406,7 +2419,7 @@
         <v>78</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>79</v>
+        <v>429</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>80</v>
@@ -2432,7 +2445,7 @@
         <v>78</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>86</v>
+        <v>430</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>80</v>
@@ -3578,7 +3591,7 @@
         <v>207</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>47</v>
+        <v>428</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>208</v>
